--- a/data/pca/factorExposure/factorExposure_2009-07-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01653130747054616</v>
+        <v>0.01679033613627876</v>
       </c>
       <c r="C2">
-        <v>0.001266575827940996</v>
+        <v>0.000765965419103551</v>
       </c>
       <c r="D2">
-        <v>0.007874215912474954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009169289122783425</v>
+      </c>
+      <c r="E2">
+        <v>-0.001564782445399909</v>
+      </c>
+      <c r="F2">
+        <v>-0.01472726541237553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09302186283653907</v>
+        <v>0.09231553996809062</v>
       </c>
       <c r="C4">
-        <v>0.02034839663536717</v>
+        <v>0.01451214436039274</v>
       </c>
       <c r="D4">
-        <v>0.07036588495408325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0837180132974162</v>
+      </c>
+      <c r="E4">
+        <v>-0.02827212747304662</v>
+      </c>
+      <c r="F4">
+        <v>0.03202551336280327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1502140857286375</v>
+        <v>0.1606125252919183</v>
       </c>
       <c r="C6">
-        <v>0.02831667050735918</v>
+        <v>0.02746789067370853</v>
       </c>
       <c r="D6">
-        <v>-0.02862473192119674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02552952303122331</v>
+      </c>
+      <c r="E6">
+        <v>-0.008450078891283715</v>
+      </c>
+      <c r="F6">
+        <v>0.04142802993167714</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06161731014598134</v>
+        <v>0.06269061648158944</v>
       </c>
       <c r="C7">
-        <v>0.002310875484914466</v>
+        <v>-0.001677091047309547</v>
       </c>
       <c r="D7">
-        <v>0.04481425654874924</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05238423682389135</v>
+      </c>
+      <c r="E7">
+        <v>-0.01231058418545515</v>
+      </c>
+      <c r="F7">
+        <v>0.04678429946974406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06334517109294764</v>
+        <v>0.05819497191676099</v>
       </c>
       <c r="C8">
-        <v>-0.01053134266903057</v>
+        <v>-0.01284175777334581</v>
       </c>
       <c r="D8">
-        <v>0.02453249170289298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03160271631412014</v>
+      </c>
+      <c r="E8">
+        <v>-0.01775652250819243</v>
+      </c>
+      <c r="F8">
+        <v>-0.02553532115950782</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07195459135197046</v>
+        <v>0.07054580622619226</v>
       </c>
       <c r="C9">
-        <v>0.01680946239945518</v>
+        <v>0.01019337748549107</v>
       </c>
       <c r="D9">
-        <v>0.07067401994160077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08663212046056654</v>
+      </c>
+      <c r="E9">
+        <v>-0.02418110868457667</v>
+      </c>
+      <c r="F9">
+        <v>0.04690461651338763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.0848469786086517</v>
+        <v>0.08968580062825801</v>
       </c>
       <c r="C10">
-        <v>0.01347578829759707</v>
+        <v>0.02104447084102462</v>
       </c>
       <c r="D10">
-        <v>-0.1643698140171115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1606810962641384</v>
+      </c>
+      <c r="E10">
+        <v>0.03150121814202921</v>
+      </c>
+      <c r="F10">
+        <v>-0.05742402491847985</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.0917651387137025</v>
+        <v>0.08714030878100448</v>
       </c>
       <c r="C11">
-        <v>0.0177194798896708</v>
+        <v>0.01079301693556689</v>
       </c>
       <c r="D11">
-        <v>0.1008343358396413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1174770972264823</v>
+      </c>
+      <c r="E11">
+        <v>-0.04649653453880234</v>
+      </c>
+      <c r="F11">
+        <v>0.02179489521428853</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09721953534950123</v>
+        <v>0.09012774237428868</v>
       </c>
       <c r="C12">
-        <v>0.01548958880244368</v>
+        <v>0.008021509680283208</v>
       </c>
       <c r="D12">
-        <v>0.1046234423260756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.132125403927431</v>
+      </c>
+      <c r="E12">
+        <v>-0.04531522661406778</v>
+      </c>
+      <c r="F12">
+        <v>0.03124390162413151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04411581687657587</v>
+        <v>0.04267123406555542</v>
       </c>
       <c r="C13">
-        <v>0.005809401349337539</v>
+        <v>0.002380983859791174</v>
       </c>
       <c r="D13">
-        <v>0.03152352395798305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05270541429726591</v>
+      </c>
+      <c r="E13">
+        <v>0.003283458762496874</v>
+      </c>
+      <c r="F13">
+        <v>0.001438770865954425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0192753911435051</v>
+        <v>0.02352853962068123</v>
       </c>
       <c r="C14">
-        <v>0.01504986425711866</v>
+        <v>0.01377347291220626</v>
       </c>
       <c r="D14">
-        <v>0.02603975547657579</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03305482566008341</v>
+      </c>
+      <c r="E14">
+        <v>-0.01812592832851436</v>
+      </c>
+      <c r="F14">
+        <v>0.01214643957693362</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03407043806414899</v>
+        <v>0.03298793923909007</v>
       </c>
       <c r="C15">
-        <v>0.007585551440722489</v>
+        <v>0.004897995196375306</v>
       </c>
       <c r="D15">
-        <v>0.03548027154572211</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04622610336138635</v>
+      </c>
+      <c r="E15">
+        <v>-0.00717084857093015</v>
+      </c>
+      <c r="F15">
+        <v>0.0267378853624233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07686245355501048</v>
+        <v>0.07270954364543757</v>
       </c>
       <c r="C16">
-        <v>0.008417361005569293</v>
+        <v>0.001292651900207377</v>
       </c>
       <c r="D16">
-        <v>0.1024324688186588</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282431427151033</v>
+      </c>
+      <c r="E16">
+        <v>-0.06084997785335021</v>
+      </c>
+      <c r="F16">
+        <v>0.0262081369231716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0005245220696647974</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0002050538155610835</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001357734976793758</v>
+      </c>
+      <c r="E17">
+        <v>-0.001065909602372975</v>
+      </c>
+      <c r="F17">
+        <v>-0.002472702924965678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01796614230526376</v>
+        <v>0.03835291696205869</v>
       </c>
       <c r="C18">
-        <v>-0.003175696011669268</v>
+        <v>-0.002877626495099509</v>
       </c>
       <c r="D18">
-        <v>0.02801263589110219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.0155481399494916</v>
+      </c>
+      <c r="E18">
+        <v>0.007877646051166731</v>
+      </c>
+      <c r="F18">
+        <v>-0.008601142885471487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06563364047751569</v>
+        <v>0.06241921676086683</v>
       </c>
       <c r="C20">
-        <v>0.006292491897082713</v>
+        <v>0.0006397865350867973</v>
       </c>
       <c r="D20">
-        <v>0.05806585553143016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07869686000379628</v>
+      </c>
+      <c r="E20">
+        <v>-0.05646136011147363</v>
+      </c>
+      <c r="F20">
+        <v>0.02964857832095629</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03986869157147446</v>
+        <v>0.04112109384976127</v>
       </c>
       <c r="C21">
-        <v>0.00991846862077643</v>
+        <v>0.006440110027254573</v>
       </c>
       <c r="D21">
-        <v>0.03214049830679675</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03819491480263905</v>
+      </c>
+      <c r="E21">
+        <v>0.00104324921905397</v>
+      </c>
+      <c r="F21">
+        <v>-0.02330927845009093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04205891897157221</v>
+        <v>0.04468489754775468</v>
       </c>
       <c r="C22">
-        <v>0.001813568871145121</v>
+        <v>0.001281476559697836</v>
       </c>
       <c r="D22">
-        <v>-0.004329692278498702</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007648282132517813</v>
+      </c>
+      <c r="E22">
+        <v>-0.0395130010892921</v>
+      </c>
+      <c r="F22">
+        <v>-0.03716158277456068</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04202194776831085</v>
+        <v>0.04466080787052175</v>
       </c>
       <c r="C23">
-        <v>0.001803375958404468</v>
+        <v>0.00127274513149809</v>
       </c>
       <c r="D23">
-        <v>-0.004307208554710962</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007663196608992213</v>
+      </c>
+      <c r="E23">
+        <v>-0.03969588878833885</v>
+      </c>
+      <c r="F23">
+        <v>-0.03712313224625374</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08310544488411774</v>
+        <v>0.07862534073424896</v>
       </c>
       <c r="C24">
-        <v>0.008604110708197756</v>
+        <v>0.001942158268803643</v>
       </c>
       <c r="D24">
-        <v>0.1069617884866925</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1204880525093634</v>
+      </c>
+      <c r="E24">
+        <v>-0.04848452482467761</v>
+      </c>
+      <c r="F24">
+        <v>0.02872810947015476</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08830367485127462</v>
+        <v>0.08367009979448269</v>
       </c>
       <c r="C25">
-        <v>0.01120721380691143</v>
+        <v>0.004568017345711755</v>
       </c>
       <c r="D25">
-        <v>0.09294999193332978</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1098881747501397</v>
+      </c>
+      <c r="E25">
+        <v>-0.03188481405072391</v>
+      </c>
+      <c r="F25">
+        <v>0.02559964267026129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05938715947931865</v>
+        <v>0.05941098808956647</v>
       </c>
       <c r="C26">
-        <v>0.01792853565910432</v>
+        <v>0.01465880389369422</v>
       </c>
       <c r="D26">
-        <v>0.02115192424858518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04299318390647025</v>
+      </c>
+      <c r="E26">
+        <v>-0.02989072183936007</v>
+      </c>
+      <c r="F26">
+        <v>-0.006385983330194602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1329121119812362</v>
+        <v>0.1428549156882487</v>
       </c>
       <c r="C28">
-        <v>0.0126281888491857</v>
+        <v>0.02246685037264571</v>
       </c>
       <c r="D28">
-        <v>-0.2726937934716398</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2605497000886043</v>
+      </c>
+      <c r="E28">
+        <v>0.06816760831288041</v>
+      </c>
+      <c r="F28">
+        <v>0.003634054832254238</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02563903032192029</v>
+        <v>0.0285486073038244</v>
       </c>
       <c r="C29">
-        <v>0.009701747121933649</v>
+        <v>0.008852490067798665</v>
       </c>
       <c r="D29">
-        <v>0.02439035036738862</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03089609616597048</v>
+      </c>
+      <c r="E29">
+        <v>-0.01314095497993185</v>
+      </c>
+      <c r="F29">
+        <v>-0.01392753189602719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06466990766913885</v>
+        <v>0.05908602029727763</v>
       </c>
       <c r="C30">
-        <v>0.01008838937635674</v>
+        <v>0.002712942773923976</v>
       </c>
       <c r="D30">
-        <v>0.06578270753642208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08775172511579997</v>
+      </c>
+      <c r="E30">
+        <v>-0.01358601709033899</v>
+      </c>
+      <c r="F30">
+        <v>0.07973368424973082</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05095475909314723</v>
+        <v>0.05093336003539686</v>
       </c>
       <c r="C31">
-        <v>0.01718167937299816</v>
+        <v>0.01591022523539011</v>
       </c>
       <c r="D31">
-        <v>0.02042324562341281</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02480832673460127</v>
+      </c>
+      <c r="E31">
+        <v>-0.02899960906642074</v>
+      </c>
+      <c r="F31">
+        <v>-0.001917743629862598</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04666769059565058</v>
+        <v>0.05073036420048358</v>
       </c>
       <c r="C32">
-        <v>0.002183718724500084</v>
+        <v>-0.00175747884322259</v>
       </c>
       <c r="D32">
-        <v>0.01994761227892389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03517525784558685</v>
+      </c>
+      <c r="E32">
+        <v>-0.03364537407343825</v>
+      </c>
+      <c r="F32">
+        <v>0.00118081394749819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09245840003993679</v>
+        <v>0.08933890303923395</v>
       </c>
       <c r="C33">
-        <v>0.01414721620163747</v>
+        <v>0.006788659460361485</v>
       </c>
       <c r="D33">
-        <v>0.08061524694796002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.10282799517048</v>
+      </c>
+      <c r="E33">
+        <v>-0.04623950127503366</v>
+      </c>
+      <c r="F33">
+        <v>0.03967733067497448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06999802976819265</v>
+        <v>0.06734329636565985</v>
       </c>
       <c r="C34">
-        <v>0.01591712514363294</v>
+        <v>0.01017455641853025</v>
       </c>
       <c r="D34">
-        <v>0.08794408040808584</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.10924952534483</v>
+      </c>
+      <c r="E34">
+        <v>-0.03486752716052904</v>
+      </c>
+      <c r="F34">
+        <v>0.03213143019400468</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02401695603273174</v>
+        <v>0.02616654814551801</v>
       </c>
       <c r="C35">
-        <v>0.003062642658951603</v>
+        <v>0.002836534635172584</v>
       </c>
       <c r="D35">
-        <v>0.006777333542582224</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01203057815708564</v>
+      </c>
+      <c r="E35">
+        <v>-0.01251179980073153</v>
+      </c>
+      <c r="F35">
+        <v>0.0004945824123811388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02621081535048647</v>
+        <v>0.02754074971180102</v>
       </c>
       <c r="C36">
-        <v>0.007853074095757613</v>
+        <v>0.006894658539391816</v>
       </c>
       <c r="D36">
-        <v>0.0386615955406112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03923234535098416</v>
+      </c>
+      <c r="E36">
+        <v>-0.0164960542356028</v>
+      </c>
+      <c r="F36">
+        <v>0.01510737490128817</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0002486486020465479</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0005973712217813477</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002075733093013369</v>
+      </c>
+      <c r="E37">
+        <v>0.0007613040310472085</v>
+      </c>
+      <c r="F37">
+        <v>-0.002070991327474078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1148829241704272</v>
+        <v>0.1029564789570589</v>
       </c>
       <c r="C39">
-        <v>0.02427027029029922</v>
+        <v>0.0159420297661453</v>
       </c>
       <c r="D39">
-        <v>0.1423432915310056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1522192179738751</v>
+      </c>
+      <c r="E39">
+        <v>-0.05831845390952631</v>
+      </c>
+      <c r="F39">
+        <v>0.02881709791290615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03811516289377287</v>
+        <v>0.04290610725002668</v>
       </c>
       <c r="C40">
-        <v>0.009262640257758069</v>
+        <v>0.007483218301667609</v>
       </c>
       <c r="D40">
-        <v>0.01716093678133916</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03188865712052889</v>
+      </c>
+      <c r="E40">
+        <v>-0.002642170689276776</v>
+      </c>
+      <c r="F40">
+        <v>-0.01867734177699024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02531550063961034</v>
+        <v>0.02786017177753808</v>
       </c>
       <c r="C41">
-        <v>0.00727486565653292</v>
+        <v>0.006901989290852201</v>
       </c>
       <c r="D41">
-        <v>0.008831234099633031</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01042109751714923</v>
+      </c>
+      <c r="E41">
+        <v>-0.01173979958268382</v>
+      </c>
+      <c r="F41">
+        <v>-0.005718393880810324</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04234007915040452</v>
+        <v>0.04075823675714729</v>
       </c>
       <c r="C43">
-        <v>0.008292231478408015</v>
+        <v>0.007371032861040849</v>
       </c>
       <c r="D43">
-        <v>0.01480882185394943</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01937503092872032</v>
+      </c>
+      <c r="E43">
+        <v>-0.02572728569453142</v>
+      </c>
+      <c r="F43">
+        <v>-0.01373054494731609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.07196066692486323</v>
+        <v>0.07913256635522144</v>
       </c>
       <c r="C44">
-        <v>0.02598747163897044</v>
+        <v>0.01917793134004947</v>
       </c>
       <c r="D44">
-        <v>0.0852624893576021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09623133850522538</v>
+      </c>
+      <c r="E44">
+        <v>-0.06112338476122389</v>
+      </c>
+      <c r="F44">
+        <v>0.1598436295098433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02170907972798651</v>
+        <v>0.02394041266941649</v>
       </c>
       <c r="C46">
-        <v>0.00401044710831029</v>
+        <v>0.003482937731853297</v>
       </c>
       <c r="D46">
-        <v>0.005062441993731299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01289016288528183</v>
+      </c>
+      <c r="E46">
+        <v>-0.02668527328338721</v>
+      </c>
+      <c r="F46">
+        <v>-0.006813269852492476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05296246863562963</v>
+        <v>0.05325922024191999</v>
       </c>
       <c r="C47">
-        <v>0.004819778962020233</v>
+        <v>0.004050806679184171</v>
       </c>
       <c r="D47">
-        <v>0.008253949599665522</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01082519555658133</v>
+      </c>
+      <c r="E47">
+        <v>-0.0232954768849305</v>
+      </c>
+      <c r="F47">
+        <v>-0.03227011330043821</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04853200778863506</v>
+        <v>0.05009857332780979</v>
       </c>
       <c r="C48">
-        <v>0.004894327208940197</v>
+        <v>0.00213726574317276</v>
       </c>
       <c r="D48">
-        <v>0.0428442384778549</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04944633920921879</v>
+      </c>
+      <c r="E48">
+        <v>0.005463430614563032</v>
+      </c>
+      <c r="F48">
+        <v>0.008581540907761462</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.202655589008107</v>
+        <v>0.2003958554799739</v>
       </c>
       <c r="C49">
-        <v>0.02210801138252268</v>
+        <v>0.01950767210545557</v>
       </c>
       <c r="D49">
-        <v>-0.01592843393833733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005703322456033383</v>
+      </c>
+      <c r="E49">
+        <v>-0.03106069369117745</v>
+      </c>
+      <c r="F49">
+        <v>0.04327944069534707</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04981377817054775</v>
+        <v>0.05168900102686549</v>
       </c>
       <c r="C50">
-        <v>0.01327793943866155</v>
+        <v>0.01165872475444479</v>
       </c>
       <c r="D50">
-        <v>0.02103044083200472</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02319236466500548</v>
+      </c>
+      <c r="E50">
+        <v>-0.03031733768434158</v>
+      </c>
+      <c r="F50">
+        <v>0.009223000350947518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1560441307477668</v>
+        <v>0.1496256659487628</v>
       </c>
       <c r="C52">
-        <v>0.02034573990107872</v>
+        <v>0.01845195442942847</v>
       </c>
       <c r="D52">
-        <v>0.04926229048670991</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04212023135424024</v>
+      </c>
+      <c r="E52">
+        <v>-0.02204743648545863</v>
+      </c>
+      <c r="F52">
+        <v>0.04342125557773054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1732235424103658</v>
+        <v>0.1701474382448194</v>
       </c>
       <c r="C53">
-        <v>0.02032216717171695</v>
+        <v>0.02079101806570294</v>
       </c>
       <c r="D53">
-        <v>0.01368215847971558</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005974070274332208</v>
+      </c>
+      <c r="E53">
+        <v>-0.02972659649080961</v>
+      </c>
+      <c r="F53">
+        <v>0.07343716090538906</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01708781490225152</v>
+        <v>0.0199112040256225</v>
       </c>
       <c r="C54">
-        <v>0.01224488415370571</v>
+        <v>0.01092477222563114</v>
       </c>
       <c r="D54">
-        <v>0.02799077504039048</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03431981808829553</v>
+      </c>
+      <c r="E54">
+        <v>-0.02155094538961891</v>
+      </c>
+      <c r="F54">
+        <v>-0.001843628625675593</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1163265066866763</v>
+        <v>0.1155243896615268</v>
       </c>
       <c r="C55">
-        <v>0.01817152448076361</v>
+        <v>0.01845201807691621</v>
       </c>
       <c r="D55">
-        <v>0.01126515832546698</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008084579338965631</v>
+      </c>
+      <c r="E55">
+        <v>-0.02526883607433662</v>
+      </c>
+      <c r="F55">
+        <v>0.04583853561805751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1794084871023382</v>
+        <v>0.176383654585533</v>
       </c>
       <c r="C56">
-        <v>0.01809742239492421</v>
+        <v>0.01881596503110463</v>
       </c>
       <c r="D56">
-        <v>0.00725375147120263</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002152578220617707</v>
+      </c>
+      <c r="E56">
+        <v>-0.03296590777128514</v>
+      </c>
+      <c r="F56">
+        <v>0.05255028447527768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.0484915375108449</v>
+        <v>0.04495654800215138</v>
       </c>
       <c r="C58">
-        <v>0.005825918145372935</v>
+        <v>-0.0003145706929998309</v>
       </c>
       <c r="D58">
-        <v>0.05758747681478835</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07337782832545199</v>
+      </c>
+      <c r="E58">
+        <v>-0.03402636741671909</v>
+      </c>
+      <c r="F58">
+        <v>-0.03607831059668053</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1616312194093069</v>
+        <v>0.1672548271349769</v>
       </c>
       <c r="C59">
-        <v>0.01398882258579856</v>
+        <v>0.02279505721100421</v>
       </c>
       <c r="D59">
-        <v>-0.224080650358077</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2186102430799608</v>
+      </c>
+      <c r="E59">
+        <v>0.04898033290369793</v>
+      </c>
+      <c r="F59">
+        <v>-0.03554372053807901</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2381947968927068</v>
+        <v>0.2314171627085678</v>
       </c>
       <c r="C60">
-        <v>0.002242173537782468</v>
+        <v>-0.001083502984689081</v>
       </c>
       <c r="D60">
-        <v>0.04170746582527066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04022157741347866</v>
+      </c>
+      <c r="E60">
+        <v>-0.00707320523704739</v>
+      </c>
+      <c r="F60">
+        <v>0.0002347841722799379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08680008629285148</v>
+        <v>0.0786893012384518</v>
       </c>
       <c r="C61">
-        <v>0.01797915550924719</v>
+        <v>0.01139037531368937</v>
       </c>
       <c r="D61">
-        <v>0.09972028851862218</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1170403181742828</v>
+      </c>
+      <c r="E61">
+        <v>-0.03802836242037381</v>
+      </c>
+      <c r="F61">
+        <v>0.01140596275978012</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1706652599992568</v>
+        <v>0.1686282246370317</v>
       </c>
       <c r="C62">
-        <v>0.02168564651322877</v>
+        <v>0.02135969797367519</v>
       </c>
       <c r="D62">
-        <v>0.006319144507327324</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.00515669800657532</v>
+      </c>
+      <c r="E62">
+        <v>-0.03290283793375342</v>
+      </c>
+      <c r="F62">
+        <v>0.0377234956758797</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04318897958668772</v>
+        <v>0.04596719193358107</v>
       </c>
       <c r="C63">
-        <v>0.005918982343440224</v>
+        <v>0.00183016579059161</v>
       </c>
       <c r="D63">
-        <v>0.04431902599687106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05965653038223</v>
+      </c>
+      <c r="E63">
+        <v>-0.02453195019207282</v>
+      </c>
+      <c r="F63">
+        <v>0.003084019351902389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1127971147143502</v>
+        <v>0.1106792306787304</v>
       </c>
       <c r="C64">
-        <v>0.01557329725382796</v>
+        <v>0.01184444989286985</v>
       </c>
       <c r="D64">
-        <v>0.03143904606884425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04350438951756318</v>
+      </c>
+      <c r="E64">
+        <v>-0.0227360541886093</v>
+      </c>
+      <c r="F64">
+        <v>0.02569001400484379</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1407304466414894</v>
+        <v>0.1517369511325224</v>
       </c>
       <c r="C65">
-        <v>0.03410423104688434</v>
+        <v>0.03458147302981669</v>
       </c>
       <c r="D65">
-        <v>-0.05231320806393265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04583017907086996</v>
+      </c>
+      <c r="E65">
+        <v>-0.004100662335877227</v>
+      </c>
+      <c r="F65">
+        <v>0.03607354248340577</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.138319251931398</v>
+        <v>0.1230054942505757</v>
       </c>
       <c r="C66">
-        <v>0.02266549505813192</v>
+        <v>0.01423023235720715</v>
       </c>
       <c r="D66">
-        <v>0.1213572241583406</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.140248651410673</v>
+      </c>
+      <c r="E66">
+        <v>-0.06383780190715663</v>
+      </c>
+      <c r="F66">
+        <v>0.03202160807327198</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06305903957330107</v>
+        <v>0.05642293145321275</v>
       </c>
       <c r="C67">
-        <v>0.00557222754033478</v>
+        <v>0.00301148961912897</v>
       </c>
       <c r="D67">
-        <v>0.05501761920218356</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0564048202437889</v>
+      </c>
+      <c r="E67">
+        <v>-0.01707112192205694</v>
+      </c>
+      <c r="F67">
+        <v>-0.02972131496808852</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1060769783144343</v>
+        <v>0.1169591288572163</v>
       </c>
       <c r="C68">
-        <v>0.02242080986357824</v>
+        <v>0.03329726400020213</v>
       </c>
       <c r="D68">
-        <v>-0.2694508322397952</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2613522724202497</v>
+      </c>
+      <c r="E68">
+        <v>0.08834075646945605</v>
+      </c>
+      <c r="F68">
+        <v>-0.002069503621444436</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04011485661599</v>
+        <v>0.03878563110233101</v>
       </c>
       <c r="C69">
-        <v>0.002101577566433267</v>
+        <v>0.001228636096128251</v>
       </c>
       <c r="D69">
-        <v>0.006612583077515624</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008502926807543344</v>
+      </c>
+      <c r="E69">
+        <v>-0.02362164922570777</v>
+      </c>
+      <c r="F69">
+        <v>0.0008235123868850174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06586051320507207</v>
+        <v>0.0659024005533094</v>
       </c>
       <c r="C70">
-        <v>-0.02477060680778038</v>
+        <v>-0.02744380824520081</v>
       </c>
       <c r="D70">
-        <v>-0.006748662119699109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02574741121917936</v>
+      </c>
+      <c r="E70">
+        <v>0.03091625055909276</v>
+      </c>
+      <c r="F70">
+        <v>-0.1762996244322499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1244995478256532</v>
+        <v>0.1365873733376808</v>
       </c>
       <c r="C71">
-        <v>0.02624916821623569</v>
+        <v>0.0378195989516283</v>
       </c>
       <c r="D71">
-        <v>-0.2849292732862545</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2718621438626361</v>
+      </c>
+      <c r="E71">
+        <v>0.09861185521509122</v>
+      </c>
+      <c r="F71">
+        <v>0.004164699991213109</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1379024990053751</v>
+        <v>0.1435622560443044</v>
       </c>
       <c r="C72">
-        <v>0.02787581045968315</v>
+        <v>0.02765803276676446</v>
       </c>
       <c r="D72">
-        <v>0.005823780703289621</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004304681962519519</v>
+      </c>
+      <c r="E72">
+        <v>-0.03664148157558954</v>
+      </c>
+      <c r="F72">
+        <v>0.03022935789232416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2082116526210953</v>
+        <v>0.2047256532084815</v>
       </c>
       <c r="C73">
-        <v>0.01753910680058608</v>
+        <v>0.01365536265791988</v>
       </c>
       <c r="D73">
-        <v>0.01055621679092215</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01737572458730588</v>
+      </c>
+      <c r="E73">
+        <v>-0.06507563675188599</v>
+      </c>
+      <c r="F73">
+        <v>0.04063599636676567</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09365828748606933</v>
+        <v>0.09526037362560213</v>
       </c>
       <c r="C74">
-        <v>0.01427219450729897</v>
+        <v>0.01409568240344508</v>
       </c>
       <c r="D74">
-        <v>0.01978327396216364</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01664161238015822</v>
+      </c>
+      <c r="E74">
+        <v>-0.04373582930517626</v>
+      </c>
+      <c r="F74">
+        <v>0.05490767652868254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.13351471409329</v>
+        <v>0.1267653432405955</v>
       </c>
       <c r="C75">
-        <v>0.03041662321735274</v>
+        <v>0.02895484715462245</v>
       </c>
       <c r="D75">
-        <v>0.02986284407501692</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02907542993521093</v>
+      </c>
+      <c r="E75">
+        <v>-0.05730964629410643</v>
+      </c>
+      <c r="F75">
+        <v>0.02242132598283441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08287484096268605</v>
+        <v>0.08993113456963089</v>
       </c>
       <c r="C77">
-        <v>0.01522534364006304</v>
+        <v>0.008425534086757466</v>
       </c>
       <c r="D77">
-        <v>0.09841157685807692</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1144466138322749</v>
+      </c>
+      <c r="E77">
+        <v>-0.04376142038146513</v>
+      </c>
+      <c r="F77">
+        <v>0.03301605860527874</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09931638098102971</v>
+        <v>0.09941148388771875</v>
       </c>
       <c r="C78">
-        <v>0.04392612254909851</v>
+        <v>0.03839350224631888</v>
       </c>
       <c r="D78">
-        <v>0.1122438491949971</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1136365987334362</v>
+      </c>
+      <c r="E78">
+        <v>-0.07629452175252238</v>
+      </c>
+      <c r="F78">
+        <v>0.05200988623188051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1643822333615826</v>
+        <v>0.1629297074573995</v>
       </c>
       <c r="C79">
-        <v>0.02493298790649643</v>
+        <v>0.02391073159397267</v>
       </c>
       <c r="D79">
-        <v>0.01241415754190271</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01299558184242303</v>
+      </c>
+      <c r="E79">
+        <v>-0.04449389672698574</v>
+      </c>
+      <c r="F79">
+        <v>0.01145740059247546</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08514452756578497</v>
+        <v>0.08216344378420014</v>
       </c>
       <c r="C80">
-        <v>0.002070581259991187</v>
+        <v>-0.000430263575459131</v>
       </c>
       <c r="D80">
-        <v>0.04752326618806585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05543740378389617</v>
+      </c>
+      <c r="E80">
+        <v>-0.03465412415272433</v>
+      </c>
+      <c r="F80">
+        <v>-0.01957719251862074</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1200843592921718</v>
+        <v>0.1176370892448595</v>
       </c>
       <c r="C81">
-        <v>0.032489654069091</v>
+        <v>0.03252110326588367</v>
       </c>
       <c r="D81">
-        <v>0.02292889228730203</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01426003730858588</v>
+      </c>
+      <c r="E81">
+        <v>-0.055267375665692</v>
+      </c>
+      <c r="F81">
+        <v>0.0185110709831237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1656864664751473</v>
+        <v>0.1655121718903374</v>
       </c>
       <c r="C82">
-        <v>0.02579308639364776</v>
+        <v>0.02622605815432303</v>
       </c>
       <c r="D82">
-        <v>0.0132156274294261</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002820166906955043</v>
+      </c>
+      <c r="E82">
+        <v>-0.02652404933140962</v>
+      </c>
+      <c r="F82">
+        <v>0.08105991741491041</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06592703481828624</v>
+        <v>0.05869813106403656</v>
       </c>
       <c r="C83">
-        <v>0.006351707799732976</v>
+        <v>0.003323548906894896</v>
       </c>
       <c r="D83">
-        <v>0.03868684843928372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04993051272498812</v>
+      </c>
+      <c r="E83">
+        <v>-0.003460058684908003</v>
+      </c>
+      <c r="F83">
+        <v>-0.02940972591289918</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06364284131176279</v>
+        <v>0.05775013384735569</v>
       </c>
       <c r="C84">
-        <v>0.01448429162308628</v>
+        <v>0.01101729111426831</v>
       </c>
       <c r="D84">
-        <v>0.06569272770756787</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07226824608527492</v>
+      </c>
+      <c r="E84">
+        <v>-0.0145096181017236</v>
+      </c>
+      <c r="F84">
+        <v>0.01308745853354101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1377493157845727</v>
+        <v>0.1345718300495315</v>
       </c>
       <c r="C85">
-        <v>0.02919686174196549</v>
+        <v>0.02899514855584674</v>
       </c>
       <c r="D85">
-        <v>0.01551867962556053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009300384987569047</v>
+      </c>
+      <c r="E85">
+        <v>-0.03602198104254439</v>
+      </c>
+      <c r="F85">
+        <v>0.04611687451812728</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1006859663536587</v>
+        <v>0.09248074004311146</v>
       </c>
       <c r="C86">
-        <v>-0.003108323295207786</v>
+        <v>-0.005977882717244067</v>
       </c>
       <c r="D86">
-        <v>0.002080863340586295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04893636651785718</v>
+      </c>
+      <c r="E86">
+        <v>-0.2362868867422701</v>
+      </c>
+      <c r="F86">
+        <v>-0.9050393736622515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.09940033781830036</v>
+        <v>0.09309316635209725</v>
       </c>
       <c r="C87">
-        <v>0.02831311388805167</v>
+        <v>0.01949247527516177</v>
       </c>
       <c r="D87">
-        <v>0.06978394756900799</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09548144878700665</v>
+      </c>
+      <c r="E87">
+        <v>0.05216211364567777</v>
+      </c>
+      <c r="F87">
+        <v>0.04838299298331645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06061201604274147</v>
+        <v>0.06029054353206215</v>
       </c>
       <c r="C88">
-        <v>0.005484888039462756</v>
+        <v>0.002604425450739397</v>
       </c>
       <c r="D88">
-        <v>0.05277379603273047</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04950314687857688</v>
+      </c>
+      <c r="E88">
+        <v>-0.02415476996971623</v>
+      </c>
+      <c r="F88">
+        <v>0.01561153027526433</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1176454523681514</v>
+        <v>0.1281580407835227</v>
       </c>
       <c r="C89">
-        <v>0.003550082621631619</v>
+        <v>0.01299003783392081</v>
       </c>
       <c r="D89">
-        <v>-0.2576689019298131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2447470802837003</v>
+      </c>
+      <c r="E89">
+        <v>0.09180585331540492</v>
+      </c>
+      <c r="F89">
+        <v>-0.01111182670508173</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1358839038719952</v>
+        <v>0.1515285894395761</v>
       </c>
       <c r="C90">
-        <v>0.02288699975017245</v>
+        <v>0.03446040393657202</v>
       </c>
       <c r="D90">
-        <v>-0.2722986736936522</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2689150957864685</v>
+      </c>
+      <c r="E90">
+        <v>0.1140584988459569</v>
+      </c>
+      <c r="F90">
+        <v>-0.01192663810420368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1201626452280231</v>
+        <v>0.1211206523754561</v>
       </c>
       <c r="C91">
-        <v>0.02004265820342488</v>
+        <v>0.02064331246303469</v>
       </c>
       <c r="D91">
-        <v>-0.008251386368359124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01614952131783194</v>
+      </c>
+      <c r="E91">
+        <v>-0.05487106793897773</v>
+      </c>
+      <c r="F91">
+        <v>-0.001721859467281458</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1376280289097893</v>
+        <v>0.1478845302003914</v>
       </c>
       <c r="C92">
-        <v>0.01309064566144874</v>
+        <v>0.02496172465073469</v>
       </c>
       <c r="D92">
-        <v>-0.305748229661217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898565635529382</v>
+      </c>
+      <c r="E92">
+        <v>0.1024706009634207</v>
+      </c>
+      <c r="F92">
+        <v>-0.01982563953211187</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1387681121502941</v>
+        <v>0.1524326548619189</v>
       </c>
       <c r="C93">
-        <v>0.01853649514831659</v>
+        <v>0.02927707329221451</v>
       </c>
       <c r="D93">
-        <v>-0.2689129387058596</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2650219247825687</v>
+      </c>
+      <c r="E93">
+        <v>0.07613665305780565</v>
+      </c>
+      <c r="F93">
+        <v>-0.001618742598442326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1341719756420873</v>
+        <v>0.127410296552592</v>
       </c>
       <c r="C94">
-        <v>0.0273866497248086</v>
+        <v>0.02530343521522654</v>
       </c>
       <c r="D94">
-        <v>0.04304702388009153</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04054069735439231</v>
+      </c>
+      <c r="E94">
+        <v>-0.05717864939432203</v>
+      </c>
+      <c r="F94">
+        <v>0.035014928564988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1249244348351956</v>
+        <v>0.1262181347864762</v>
       </c>
       <c r="C95">
-        <v>0.009900634760546688</v>
+        <v>0.003305321196797633</v>
       </c>
       <c r="D95">
-        <v>0.08147407201328968</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09801039071926747</v>
+      </c>
+      <c r="E95">
+        <v>-0.05303529096531413</v>
+      </c>
+      <c r="F95">
+        <v>-0.002713269346037553</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1208427770600216</v>
+        <v>0.1132325231312101</v>
       </c>
       <c r="C96">
-        <v>-0.9869546823268478</v>
+        <v>-0.9867483017782255</v>
       </c>
       <c r="D96">
-        <v>-0.0120285348678791</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05078725723344635</v>
+      </c>
+      <c r="E96">
+        <v>-0.05187376775414849</v>
+      </c>
+      <c r="F96">
+        <v>0.04220565170131861</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.193955394810698</v>
+        <v>0.1943669279114308</v>
       </c>
       <c r="C97">
-        <v>-0.005265148700332471</v>
+        <v>-0.005811069954055554</v>
       </c>
       <c r="D97">
-        <v>-0.01443274290060898</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01951519889489416</v>
+      </c>
+      <c r="E97">
+        <v>-0.0213456116290408</v>
+      </c>
+      <c r="F97">
+        <v>-0.09065386201306079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1992189746794031</v>
+        <v>0.206522170591778</v>
       </c>
       <c r="C98">
-        <v>0.01182913361319137</v>
+        <v>0.007477534743594914</v>
       </c>
       <c r="D98">
-        <v>0.01073766252384395</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01505012753602788</v>
+      </c>
+      <c r="E98">
+        <v>0.07442993108081136</v>
+      </c>
+      <c r="F98">
+        <v>-0.09031952831830749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0557532639928488</v>
+        <v>0.05526054717258289</v>
       </c>
       <c r="C99">
-        <v>-0.001999977286523905</v>
+        <v>-0.004259687642071314</v>
       </c>
       <c r="D99">
-        <v>0.02499217930426226</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03826616227084503</v>
+      </c>
+      <c r="E99">
+        <v>-0.02155882681918016</v>
+      </c>
+      <c r="F99">
+        <v>0.003394030288732996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1416875597060289</v>
+        <v>0.1284439359555031</v>
       </c>
       <c r="C100">
-        <v>-0.03788956080854561</v>
+        <v>-0.05182615450950164</v>
       </c>
       <c r="D100">
-        <v>0.4115559873219327</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3521883685079253</v>
+      </c>
+      <c r="E100">
+        <v>0.8830460430405082</v>
+      </c>
+      <c r="F100">
+        <v>-0.1635488865423171</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02548816778851953</v>
+        <v>0.02849431410279769</v>
       </c>
       <c r="C101">
-        <v>0.009605541688624481</v>
+        <v>0.008866840312655227</v>
       </c>
       <c r="D101">
-        <v>0.0240455881714975</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03056428892991142</v>
+      </c>
+      <c r="E101">
+        <v>-0.01256071234784534</v>
+      </c>
+      <c r="F101">
+        <v>-0.01508953571198162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
